--- a/artifact_sheets/[A] Cloud Provider Results.xlsx
+++ b/artifact_sheets/[A] Cloud Provider Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samchsia/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDAFCD-313C-9F43-8566-D199706DFA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52E9B2-06ED-424B-8E1B-42A70558CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Results" sheetId="1" r:id="rId1"/>
@@ -197,6 +197,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,18 +205,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,12 +228,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -302,7 +308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -524,8 +529,8 @@
   </sheetPr>
   <dimension ref="A1:AD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R135" sqref="R135"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="P144" sqref="P144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9456,8 +9461,20 @@
       <c r="AD135" s="3"/>
     </row>
     <row r="136" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
+      <c r="N136" s="26"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -9475,21 +9492,20 @@
       <c r="AD136" s="3"/>
     </row>
     <row r="137" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="26"/>
+      <c r="N137" s="26"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
@@ -9507,21 +9523,20 @@
       <c r="AD137" s="3"/>
     </row>
     <row r="138" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="27"/>
-      <c r="O138" s="27"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="26"/>
+      <c r="N138" s="26"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
@@ -9539,21 +9554,20 @@
       <c r="AD138" s="3"/>
     </row>
     <row r="139" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="27"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="27"/>
-      <c r="O139" s="27"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="26"/>
+      <c r="M139" s="26"/>
+      <c r="N139" s="26"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
@@ -9571,21 +9585,20 @@
       <c r="AD139" s="3"/>
     </row>
     <row r="140" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="27"/>
-      <c r="O140" s="27"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="26"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -9603,21 +9616,20 @@
       <c r="AD140" s="3"/>
     </row>
     <row r="141" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
+      <c r="N141" s="26"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -9635,21 +9647,20 @@
       <c r="AD141" s="3"/>
     </row>
     <row r="142" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="27"/>
-      <c r="O142" s="27"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="26"/>
+      <c r="N142" s="26"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -9667,21 +9678,20 @@
       <c r="AD142" s="3"/>
     </row>
     <row r="143" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="27"/>
-      <c r="O143" s="27"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="26"/>
+      <c r="M143" s="26"/>
+      <c r="N143" s="26"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
@@ -9699,21 +9709,20 @@
       <c r="AD143" s="3"/>
     </row>
     <row r="144" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="27"/>
-      <c r="O144" s="27"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
@@ -9731,21 +9740,20 @@
       <c r="AD144" s="3"/>
     </row>
     <row r="145" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="27"/>
-      <c r="O145" s="27"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
@@ -9763,21 +9771,20 @@
       <c r="AD145" s="3"/>
     </row>
     <row r="146" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="27"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="27"/>
-      <c r="O146" s="27"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
+      <c r="M146" s="26"/>
+      <c r="N146" s="26"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -9795,21 +9802,20 @@
       <c r="AD146" s="3"/>
     </row>
     <row r="147" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="27"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="26"/>
+      <c r="N147" s="26"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -9827,21 +9833,20 @@
       <c r="AD147" s="3"/>
     </row>
     <row r="148" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="27"/>
-      <c r="M148" s="27"/>
-      <c r="N148" s="27"/>
-      <c r="O148" s="27"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="26"/>
+      <c r="N148" s="26"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -9859,21 +9864,20 @@
       <c r="AD148" s="3"/>
     </row>
     <row r="149" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="27"/>
-      <c r="M149" s="27"/>
-      <c r="N149" s="27"/>
-      <c r="O149" s="27"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="26"/>
+      <c r="M149" s="26"/>
+      <c r="N149" s="26"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -9891,21 +9895,20 @@
       <c r="AD149" s="3"/>
     </row>
     <row r="150" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
-      <c r="L150" s="27"/>
-      <c r="M150" s="27"/>
-      <c r="N150" s="27"/>
-      <c r="O150" s="27"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="26"/>
+      <c r="M150" s="26"/>
+      <c r="N150" s="26"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -9923,21 +9926,20 @@
       <c r="AD150" s="3"/>
     </row>
     <row r="151" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="27"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="27"/>
-      <c r="O151" s="27"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="26"/>
+      <c r="N151" s="26"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -9955,21 +9957,20 @@
       <c r="AD151" s="3"/>
     </row>
     <row r="152" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="27"/>
-      <c r="M152" s="27"/>
-      <c r="N152" s="27"/>
-      <c r="O152" s="27"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="26"/>
+      <c r="M152" s="26"/>
+      <c r="N152" s="26"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -9987,20 +9988,20 @@
       <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="26"/>
+      <c r="N153" s="26"/>
       <c r="O153" s="11"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
@@ -10019,20 +10020,20 @@
       <c r="AD153" s="3"/>
     </row>
     <row r="154" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="11"/>
-      <c r="L154" s="11"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="26"/>
+      <c r="M154" s="26"/>
+      <c r="N154" s="26"/>
       <c r="O154" s="11"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
@@ -10051,20 +10052,20 @@
       <c r="AD154" s="3"/>
     </row>
     <row r="155" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="11"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="26"/>
+      <c r="M155" s="26"/>
+      <c r="N155" s="26"/>
       <c r="O155" s="11"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
@@ -10083,20 +10084,20 @@
       <c r="AD155" s="3"/>
     </row>
     <row r="156" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="7"/>
-      <c r="N156" s="7"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="26"/>
+      <c r="M156" s="26"/>
+      <c r="N156" s="26"/>
       <c r="O156" s="11"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
@@ -10115,20 +10116,20 @@
       <c r="AD156" s="3"/>
     </row>
     <row r="157" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
-      <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="26"/>
+      <c r="M157" s="26"/>
+      <c r="N157" s="26"/>
       <c r="O157" s="11"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
@@ -10147,21 +10148,20 @@
       <c r="AD157" s="3"/>
     </row>
     <row r="158" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="6"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="8"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
       <c r="H158" s="26"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
       <c r="L158" s="26"/>
-      <c r="M158" s="27"/>
-      <c r="N158" s="27"/>
-      <c r="O158" s="27"/>
+      <c r="M158" s="26"/>
+      <c r="N158" s="26"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -10179,20 +10179,20 @@
       <c r="AD158" s="3"/>
     </row>
     <row r="159" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="26"/>
+      <c r="M159" s="26"/>
+      <c r="N159" s="26"/>
       <c r="O159" s="2"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
@@ -10211,20 +10211,20 @@
       <c r="AD159" s="3"/>
     </row>
     <row r="160" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="11"/>
-      <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="26"/>
+      <c r="M160" s="26"/>
+      <c r="N160" s="26"/>
       <c r="O160" s="11"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
@@ -10243,20 +10243,20 @@
       <c r="AD160" s="3"/>
     </row>
     <row r="161" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="7"/>
-      <c r="N161" s="7"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="26"/>
+      <c r="M161" s="26"/>
+      <c r="N161" s="26"/>
       <c r="O161" s="11"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
@@ -10275,20 +10275,20 @@
       <c r="AD161" s="3"/>
     </row>
     <row r="162" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="11"/>
-      <c r="L162" s="11"/>
-      <c r="M162" s="7"/>
-      <c r="N162" s="7"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="26"/>
+      <c r="M162" s="26"/>
+      <c r="N162" s="26"/>
       <c r="O162" s="11"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
@@ -10307,20 +10307,20 @@
       <c r="AD162" s="3"/>
     </row>
     <row r="163" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="26"/>
+      <c r="M163" s="26"/>
+      <c r="N163" s="26"/>
       <c r="O163" s="11"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
@@ -10339,20 +10339,20 @@
       <c r="AD163" s="3"/>
     </row>
     <row r="164" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="7"/>
-      <c r="N164" s="7"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="26"/>
+      <c r="N164" s="26"/>
       <c r="O164" s="11"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
@@ -10371,20 +10371,20 @@
       <c r="AD164" s="3"/>
     </row>
     <row r="165" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="7"/>
-      <c r="N165" s="7"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26"/>
+      <c r="N165" s="26"/>
       <c r="O165" s="11"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
@@ -10403,20 +10403,20 @@
       <c r="AD165" s="3"/>
     </row>
     <row r="166" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="7"/>
-      <c r="N166" s="7"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="26"/>
+      <c r="M166" s="26"/>
+      <c r="N166" s="26"/>
       <c r="O166" s="11"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
@@ -10435,20 +10435,20 @@
       <c r="AD166" s="3"/>
     </row>
     <row r="167" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="26"/>
+      <c r="N167" s="26"/>
       <c r="O167" s="11"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
@@ -10467,20 +10467,20 @@
       <c r="AD167" s="3"/>
     </row>
     <row r="168" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="26"/>
+      <c r="N168" s="26"/>
       <c r="O168" s="11"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
@@ -10499,20 +10499,20 @@
       <c r="AD168" s="3"/>
     </row>
     <row r="169" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="7"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="26"/>
+      <c r="J169" s="26"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="26"/>
+      <c r="M169" s="26"/>
+      <c r="N169" s="26"/>
       <c r="O169" s="11"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
@@ -10531,20 +10531,20 @@
       <c r="AD169" s="3"/>
     </row>
     <row r="170" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="26"/>
+      <c r="M170" s="26"/>
+      <c r="N170" s="26"/>
       <c r="O170" s="11"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
@@ -10563,20 +10563,20 @@
       <c r="AD170" s="3"/>
     </row>
     <row r="171" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="11"/>
-      <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="26"/>
+      <c r="M171" s="26"/>
+      <c r="N171" s="26"/>
       <c r="O171" s="11"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
@@ -10595,20 +10595,20 @@
       <c r="AD171" s="3"/>
     </row>
     <row r="172" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="11"/>
-      <c r="L172" s="11"/>
-      <c r="M172" s="7"/>
-      <c r="N172" s="7"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="26"/>
       <c r="O172" s="11"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
@@ -10627,20 +10627,20 @@
       <c r="AD172" s="3"/>
     </row>
     <row r="173" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="26"/>
+      <c r="M173" s="26"/>
+      <c r="N173" s="26"/>
       <c r="O173" s="11"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
@@ -10659,20 +10659,20 @@
       <c r="AD173" s="3"/>
     </row>
     <row r="174" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3"/>
-      <c r="N174" s="3"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="26"/>
+      <c r="J174" s="26"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="26"/>
+      <c r="M174" s="26"/>
+      <c r="N174" s="26"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
@@ -10691,20 +10691,20 @@
       <c r="AD174" s="3"/>
     </row>
     <row r="175" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="26"/>
+      <c r="N175" s="26"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
@@ -10723,20 +10723,20 @@
       <c r="AD175" s="3"/>
     </row>
     <row r="176" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="26"/>
+      <c r="N176" s="26"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
@@ -10755,21 +10755,20 @@
       <c r="AD176" s="3"/>
     </row>
     <row r="177" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="8"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
       <c r="H177" s="26"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
       <c r="L177" s="26"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
+      <c r="M177" s="26"/>
+      <c r="N177" s="26"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
@@ -10787,20 +10786,20 @@
       <c r="AD177" s="3"/>
     </row>
     <row r="178" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="26"/>
+      <c r="N178" s="26"/>
       <c r="O178" s="2"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
@@ -10819,20 +10818,20 @@
       <c r="AD178" s="3"/>
     </row>
     <row r="179" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="7"/>
-      <c r="N179" s="7"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
+      <c r="J179" s="26"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="26"/>
+      <c r="M179" s="26"/>
+      <c r="N179" s="26"/>
       <c r="O179" s="11"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
@@ -10851,20 +10850,20 @@
       <c r="AD179" s="3"/>
     </row>
     <row r="180" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="11"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="26"/>
+      <c r="M180" s="26"/>
+      <c r="N180" s="26"/>
       <c r="O180" s="11"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
@@ -10883,20 +10882,20 @@
       <c r="AD180" s="3"/>
     </row>
     <row r="181" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="11"/>
-      <c r="L181" s="11"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="26"/>
+      <c r="J181" s="26"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="26"/>
+      <c r="M181" s="26"/>
+      <c r="N181" s="26"/>
       <c r="O181" s="11"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
@@ -10915,20 +10914,20 @@
       <c r="AD181" s="3"/>
     </row>
     <row r="182" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="7"/>
-      <c r="N182" s="7"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="26"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="26"/>
+      <c r="M182" s="26"/>
+      <c r="N182" s="26"/>
       <c r="O182" s="11"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
@@ -10947,20 +10946,20 @@
       <c r="AD182" s="3"/>
     </row>
     <row r="183" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
-      <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="26"/>
+      <c r="I183" s="26"/>
+      <c r="J183" s="26"/>
+      <c r="K183" s="26"/>
+      <c r="L183" s="26"/>
+      <c r="M183" s="26"/>
+      <c r="N183" s="26"/>
       <c r="O183" s="11"/>
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
@@ -10979,20 +10978,20 @@
       <c r="AD183" s="3"/>
     </row>
     <row r="184" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="11"/>
-      <c r="L184" s="11"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="26"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="26"/>
+      <c r="M184" s="26"/>
+      <c r="N184" s="26"/>
       <c r="O184" s="11"/>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
@@ -11011,20 +11010,20 @@
       <c r="AD184" s="3"/>
     </row>
     <row r="185" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="11"/>
-      <c r="L185" s="11"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
+      <c r="H185" s="26"/>
+      <c r="I185" s="26"/>
+      <c r="J185" s="26"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="26"/>
+      <c r="M185" s="26"/>
+      <c r="N185" s="26"/>
       <c r="O185" s="11"/>
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
@@ -11043,20 +11042,20 @@
       <c r="AD185" s="3"/>
     </row>
     <row r="186" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="11"/>
-      <c r="L186" s="11"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="26"/>
+      <c r="N186" s="26"/>
       <c r="O186" s="11"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
@@ -11075,20 +11074,20 @@
       <c r="AD186" s="3"/>
     </row>
     <row r="187" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26"/>
+      <c r="H187" s="26"/>
+      <c r="I187" s="26"/>
+      <c r="J187" s="26"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="26"/>
+      <c r="M187" s="26"/>
+      <c r="N187" s="26"/>
       <c r="O187" s="11"/>
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
@@ -11107,20 +11106,20 @@
       <c r="AD187" s="3"/>
     </row>
     <row r="188" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="26"/>
+      <c r="M188" s="26"/>
+      <c r="N188" s="26"/>
       <c r="O188" s="11"/>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
@@ -11139,20 +11138,20 @@
       <c r="AD188" s="3"/>
     </row>
     <row r="189" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="11"/>
-      <c r="L189" s="11"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="26"/>
+      <c r="I189" s="26"/>
+      <c r="J189" s="26"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="26"/>
+      <c r="M189" s="26"/>
+      <c r="N189" s="26"/>
       <c r="O189" s="11"/>
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
@@ -11171,20 +11170,20 @@
       <c r="AD189" s="3"/>
     </row>
     <row r="190" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="11"/>
-      <c r="L190" s="11"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="26"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="26"/>
+      <c r="M190" s="26"/>
+      <c r="N190" s="26"/>
       <c r="O190" s="11"/>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
@@ -11203,20 +11202,20 @@
       <c r="AD190" s="3"/>
     </row>
     <row r="191" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="11"/>
-      <c r="L191" s="11"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="7"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="26"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="26"/>
+      <c r="M191" s="26"/>
+      <c r="N191" s="26"/>
       <c r="O191" s="11"/>
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
@@ -11235,6 +11234,20 @@
       <c r="AD191" s="3"/>
     </row>
     <row r="192" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="26"/>
+      <c r="H192" s="26"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="26"/>
+      <c r="K192" s="26"/>
+      <c r="L192" s="26"/>
+      <c r="M192" s="26"/>
+      <c r="N192" s="26"/>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
@@ -11252,6 +11265,20 @@
       <c r="AD192" s="3"/>
     </row>
     <row r="193" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="26"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="26"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="26"/>
+      <c r="M193" s="26"/>
+      <c r="N193" s="26"/>
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
@@ -11269,6 +11296,20 @@
       <c r="AD193" s="3"/>
     </row>
     <row r="194" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="26"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="26"/>
+      <c r="I194" s="26"/>
+      <c r="J194" s="26"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="26"/>
+      <c r="M194" s="26"/>
+      <c r="N194" s="26"/>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
@@ -11286,6 +11327,20 @@
       <c r="AD194" s="3"/>
     </row>
     <row r="195" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="26"/>
+      <c r="M195" s="26"/>
+      <c r="N195" s="26"/>
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
@@ -11303,6 +11358,20 @@
       <c r="AD195" s="3"/>
     </row>
     <row r="196" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="26"/>
+      <c r="M196" s="26"/>
+      <c r="N196" s="26"/>
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
       <c r="R196" s="3"/>
@@ -11320,6 +11389,20 @@
       <c r="AD196" s="3"/>
     </row>
     <row r="197" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
+      <c r="F197" s="26"/>
+      <c r="G197" s="26"/>
+      <c r="H197" s="26"/>
+      <c r="I197" s="26"/>
+      <c r="J197" s="26"/>
+      <c r="K197" s="26"/>
+      <c r="L197" s="26"/>
+      <c r="M197" s="26"/>
+      <c r="N197" s="26"/>
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
@@ -11337,20 +11420,20 @@
       <c r="AD197" s="3"/>
     </row>
     <row r="198" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="26"/>
+      <c r="I198" s="26"/>
+      <c r="J198" s="26"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="26"/>
+      <c r="M198" s="26"/>
+      <c r="N198" s="26"/>
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
@@ -11369,20 +11452,20 @@
       <c r="AD198" s="3"/>
     </row>
     <row r="199" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
+      <c r="F199" s="26"/>
+      <c r="G199" s="26"/>
+      <c r="H199" s="26"/>
+      <c r="I199" s="26"/>
+      <c r="J199" s="26"/>
+      <c r="K199" s="26"/>
+      <c r="L199" s="26"/>
+      <c r="M199" s="26"/>
+      <c r="N199" s="26"/>
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
@@ -11401,20 +11484,20 @@
       <c r="AD199" s="3"/>
     </row>
     <row r="200" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
+      <c r="I200" s="26"/>
+      <c r="J200" s="26"/>
+      <c r="K200" s="26"/>
+      <c r="L200" s="26"/>
+      <c r="M200" s="26"/>
+      <c r="N200" s="26"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
@@ -11433,20 +11516,20 @@
       <c r="AD200" s="3"/>
     </row>
     <row r="201" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
+      <c r="J201" s="26"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="26"/>
+      <c r="M201" s="26"/>
+      <c r="N201" s="26"/>
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
@@ -11465,20 +11548,20 @@
       <c r="AD201" s="3"/>
     </row>
     <row r="202" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="26"/>
+      <c r="J202" s="26"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="26"/>
+      <c r="M202" s="26"/>
+      <c r="N202" s="26"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
@@ -11497,20 +11580,20 @@
       <c r="AD202" s="3"/>
     </row>
     <row r="203" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="26"/>
+      <c r="J203" s="26"/>
+      <c r="K203" s="26"/>
+      <c r="L203" s="26"/>
+      <c r="M203" s="26"/>
+      <c r="N203" s="26"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
@@ -11529,20 +11612,20 @@
       <c r="AD203" s="3"/>
     </row>
     <row r="204" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26"/>
+      <c r="K204" s="26"/>
+      <c r="L204" s="26"/>
+      <c r="M204" s="26"/>
+      <c r="N204" s="26"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
@@ -11561,20 +11644,20 @@
       <c r="AD204" s="3"/>
     </row>
     <row r="205" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="26"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="26"/>
+      <c r="K205" s="26"/>
+      <c r="L205" s="26"/>
+      <c r="M205" s="26"/>
+      <c r="N205" s="26"/>
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
@@ -11593,20 +11676,20 @@
       <c r="AD205" s="3"/>
     </row>
     <row r="206" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="26"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26"/>
+      <c r="K206" s="26"/>
+      <c r="L206" s="26"/>
+      <c r="M206" s="26"/>
+      <c r="N206" s="26"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
@@ -11625,20 +11708,20 @@
       <c r="AD206" s="3"/>
     </row>
     <row r="207" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="26"/>
+      <c r="H207" s="26"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="26"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
+      <c r="M207" s="26"/>
+      <c r="N207" s="26"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
@@ -11657,20 +11740,20 @@
       <c r="AD207" s="3"/>
     </row>
     <row r="208" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="26"/>
+      <c r="I208" s="26"/>
+      <c r="J208" s="26"/>
+      <c r="K208" s="26"/>
+      <c r="L208" s="26"/>
+      <c r="M208" s="26"/>
+      <c r="N208" s="26"/>
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
@@ -11689,20 +11772,20 @@
       <c r="AD208" s="3"/>
     </row>
     <row r="209" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="26"/>
+      <c r="H209" s="26"/>
+      <c r="I209" s="26"/>
+      <c r="J209" s="26"/>
+      <c r="K209" s="26"/>
+      <c r="L209" s="26"/>
+      <c r="M209" s="26"/>
+      <c r="N209" s="26"/>
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
@@ -11721,20 +11804,20 @@
       <c r="AD209" s="3"/>
     </row>
     <row r="210" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+      <c r="F210" s="26"/>
+      <c r="G210" s="26"/>
+      <c r="H210" s="26"/>
+      <c r="I210" s="26"/>
+      <c r="J210" s="26"/>
+      <c r="K210" s="26"/>
+      <c r="L210" s="26"/>
+      <c r="M210" s="26"/>
+      <c r="N210" s="26"/>
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
@@ -11753,20 +11836,20 @@
       <c r="AD210" s="3"/>
     </row>
     <row r="211" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="26"/>
+      <c r="H211" s="26"/>
+      <c r="I211" s="26"/>
+      <c r="J211" s="26"/>
+      <c r="K211" s="26"/>
+      <c r="L211" s="26"/>
+      <c r="M211" s="26"/>
+      <c r="N211" s="26"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
@@ -11785,20 +11868,20 @@
       <c r="AD211" s="3"/>
     </row>
     <row r="212" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="26"/>
+      <c r="G212" s="26"/>
+      <c r="H212" s="26"/>
+      <c r="I212" s="26"/>
+      <c r="J212" s="26"/>
+      <c r="K212" s="26"/>
+      <c r="L212" s="26"/>
+      <c r="M212" s="26"/>
+      <c r="N212" s="26"/>
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
@@ -11817,20 +11900,20 @@
       <c r="AD212" s="3"/>
     </row>
     <row r="213" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="26"/>
+      <c r="J213" s="26"/>
+      <c r="K213" s="26"/>
+      <c r="L213" s="26"/>
+      <c r="M213" s="26"/>
+      <c r="N213" s="26"/>
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
@@ -11849,20 +11932,20 @@
       <c r="AD213" s="3"/>
     </row>
     <row r="214" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="26"/>
+      <c r="G214" s="26"/>
+      <c r="H214" s="26"/>
+      <c r="I214" s="26"/>
+      <c r="J214" s="26"/>
+      <c r="K214" s="26"/>
+      <c r="L214" s="26"/>
+      <c r="M214" s="26"/>
+      <c r="N214" s="26"/>
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
@@ -11881,20 +11964,20 @@
       <c r="AD214" s="3"/>
     </row>
     <row r="215" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="26"/>
+      <c r="I215" s="26"/>
+      <c r="J215" s="26"/>
+      <c r="K215" s="26"/>
+      <c r="L215" s="26"/>
+      <c r="M215" s="26"/>
+      <c r="N215" s="26"/>
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
@@ -11913,20 +11996,20 @@
       <c r="AD215" s="3"/>
     </row>
     <row r="216" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="26"/>
+      <c r="I216" s="26"/>
+      <c r="J216" s="26"/>
+      <c r="K216" s="26"/>
+      <c r="L216" s="26"/>
+      <c r="M216" s="26"/>
+      <c r="N216" s="26"/>
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
@@ -11945,20 +12028,20 @@
       <c r="AD216" s="3"/>
     </row>
     <row r="217" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="26"/>
+      <c r="I217" s="26"/>
+      <c r="J217" s="26"/>
+      <c r="K217" s="26"/>
+      <c r="L217" s="26"/>
+      <c r="M217" s="26"/>
+      <c r="N217" s="26"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
@@ -11977,20 +12060,20 @@
       <c r="AD217" s="3"/>
     </row>
     <row r="218" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="26"/>
+      <c r="G218" s="26"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="26"/>
+      <c r="J218" s="26"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="26"/>
+      <c r="M218" s="26"/>
+      <c r="N218" s="26"/>
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
@@ -12009,20 +12092,20 @@
       <c r="AD218" s="3"/>
     </row>
     <row r="219" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26"/>
+      <c r="G219" s="26"/>
+      <c r="H219" s="26"/>
+      <c r="I219" s="26"/>
+      <c r="J219" s="26"/>
+      <c r="K219" s="26"/>
+      <c r="L219" s="26"/>
+      <c r="M219" s="26"/>
+      <c r="N219" s="26"/>
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
@@ -12041,20 +12124,20 @@
       <c r="AD219" s="3"/>
     </row>
     <row r="220" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="26"/>
+      <c r="H220" s="26"/>
+      <c r="I220" s="26"/>
+      <c r="J220" s="26"/>
+      <c r="K220" s="26"/>
+      <c r="L220" s="26"/>
+      <c r="M220" s="26"/>
+      <c r="N220" s="26"/>
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
@@ -12073,20 +12156,20 @@
       <c r="AD220" s="3"/>
     </row>
     <row r="221" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="26"/>
+      <c r="G221" s="26"/>
+      <c r="H221" s="26"/>
+      <c r="I221" s="26"/>
+      <c r="J221" s="26"/>
+      <c r="K221" s="26"/>
+      <c r="L221" s="26"/>
+      <c r="M221" s="26"/>
+      <c r="N221" s="26"/>
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
@@ -12105,20 +12188,20 @@
       <c r="AD221" s="3"/>
     </row>
     <row r="222" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="26"/>
+      <c r="H222" s="26"/>
+      <c r="I222" s="26"/>
+      <c r="J222" s="26"/>
+      <c r="K222" s="26"/>
+      <c r="L222" s="26"/>
+      <c r="M222" s="26"/>
+      <c r="N222" s="26"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
@@ -12137,20 +12220,20 @@
       <c r="AD222" s="3"/>
     </row>
     <row r="223" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="26"/>
+      <c r="H223" s="26"/>
+      <c r="I223" s="26"/>
+      <c r="J223" s="26"/>
+      <c r="K223" s="26"/>
+      <c r="L223" s="26"/>
+      <c r="M223" s="26"/>
+      <c r="N223" s="26"/>
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
@@ -12169,20 +12252,20 @@
       <c r="AD223" s="3"/>
     </row>
     <row r="224" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="26"/>
+      <c r="I224" s="26"/>
+      <c r="J224" s="26"/>
+      <c r="K224" s="26"/>
+      <c r="L224" s="26"/>
+      <c r="M224" s="26"/>
+      <c r="N224" s="26"/>
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
@@ -12201,20 +12284,20 @@
       <c r="AD224" s="3"/>
     </row>
     <row r="225" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="26"/>
+      <c r="I225" s="26"/>
+      <c r="J225" s="26"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="26"/>
+      <c r="M225" s="26"/>
+      <c r="N225" s="26"/>
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
@@ -12233,20 +12316,20 @@
       <c r="AD225" s="3"/>
     </row>
     <row r="226" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="26"/>
+      <c r="I226" s="26"/>
+      <c r="J226" s="26"/>
+      <c r="K226" s="26"/>
+      <c r="L226" s="26"/>
+      <c r="M226" s="26"/>
+      <c r="N226" s="26"/>
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
@@ -12265,20 +12348,20 @@
       <c r="AD226" s="3"/>
     </row>
     <row r="227" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
+      <c r="F227" s="26"/>
+      <c r="G227" s="26"/>
+      <c r="H227" s="26"/>
+      <c r="I227" s="26"/>
+      <c r="J227" s="26"/>
+      <c r="K227" s="26"/>
+      <c r="L227" s="26"/>
+      <c r="M227" s="26"/>
+      <c r="N227" s="26"/>
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
@@ -12297,20 +12380,20 @@
       <c r="AD227" s="3"/>
     </row>
     <row r="228" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="26"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="26"/>
+      <c r="I228" s="26"/>
+      <c r="J228" s="26"/>
+      <c r="K228" s="26"/>
+      <c r="L228" s="26"/>
+      <c r="M228" s="26"/>
+      <c r="N228" s="26"/>
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
@@ -12329,20 +12412,20 @@
       <c r="AD228" s="3"/>
     </row>
     <row r="229" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="26"/>
+      <c r="I229" s="26"/>
+      <c r="J229" s="26"/>
+      <c r="K229" s="26"/>
+      <c r="L229" s="26"/>
+      <c r="M229" s="26"/>
+      <c r="N229" s="26"/>
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
@@ -12361,20 +12444,20 @@
       <c r="AD229" s="3"/>
     </row>
     <row r="230" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="26"/>
+      <c r="I230" s="26"/>
+      <c r="J230" s="26"/>
+      <c r="K230" s="26"/>
+      <c r="L230" s="26"/>
+      <c r="M230" s="26"/>
+      <c r="N230" s="26"/>
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
